--- a/pred_ohlcv/54_21/2020-01-19 STRAT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 STRAT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>39837.08629999999</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>39353.74009999999</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>43794.43199999999</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>43524.25369999999</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -626,7 +626,7 @@
         <v>44135.03519999998</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -964,7 +964,7 @@
         <v>44395.97949999997</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>50275.97949999997</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>50275.97949999997</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>50175.97949999997</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>49246.46139999996</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>49246.46139999996</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>49622.89829999996</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>49622.89829999996</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>49755.19729999996</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>49755.19729999996</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>49755.19729999996</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>49755.19729999996</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>49755.19729999996</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>49755.19729999996</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>49755.19729999996</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>49755.19729999996</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>49755.19729999996</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>49755.19729999996</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>45770.93779999996</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>36106.34169999996</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>48577.94459999996</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>63558.88279999996</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>68541.46979999996</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>51927.24172970996</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>240325.2103305299</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>177772.7178737099</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>348686.1451478099</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>362192.0344478099</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>359311.4534478099</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>347920.6019478099</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>343021.5543478099</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>340481.08794781</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>340642.8450478099</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>324404.52924781</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>319189.0822553399</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>318251.45535534</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>322523.04285534</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>314971.30305534</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>319807.72335534</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>262157.01545534</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>262157.01545534</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>262157.01545534</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>232281.7221049101</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>235243.6047049101</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>221548.2519049101</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>221548.2519049101</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>221772.5833049101</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>221638.8953049101</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>221702.8953049101</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-19 STRAT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 STRAT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>39837.08629999999</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>39353.74009999999</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>43794.43199999999</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>43524.25369999999</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -626,7 +626,7 @@
         <v>44135.03519999998</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>50175.97949999997</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>51927.24172970996</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>240325.2103305299</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>177772.7178737099</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>422411.1111478099</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>348686.1451478099</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>362192.0344478099</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>359311.4534478099</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>347920.6019478099</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>343021.5543478099</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>340481.08794781</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>340642.8450478099</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>324404.52924781</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>319189.0822553399</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>318251.45535534</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>322523.04285534</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>314971.30305534</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>319807.72335534</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>262157.01545534</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>232281.7221049101</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>235243.6047049101</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>221548.2519049101</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>221548.2519049101</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>221772.5833049101</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>221638.8953049101</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>221702.8953049101</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
